--- a/airhockey/airhockey/speedtest_Auswertung1.xlsx
+++ b/airhockey/airhockey/speedtest_Auswertung1.xlsx
@@ -600,7 +600,7 @@
           </c:spPr>
           <c:trendline>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -1054,11 +1054,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="152230656"/>
-        <c:axId val="152231232"/>
+        <c:axId val="149697600"/>
+        <c:axId val="149699328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="152230656"/>
+        <c:axId val="149697600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1068,12 +1068,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152231232"/>
+        <c:crossAx val="149699328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="152231232"/>
+        <c:axId val="149699328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1084,7 +1084,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152230656"/>
+        <c:crossAx val="149697600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1332,11 +1332,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="683041920"/>
-        <c:axId val="683042496"/>
+        <c:axId val="153111936"/>
+        <c:axId val="153227776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="683041920"/>
+        <c:axId val="153111936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1346,12 +1346,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="683042496"/>
+        <c:crossAx val="153227776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="683042496"/>
+        <c:axId val="153227776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,7 +1362,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="683041920"/>
+        <c:crossAx val="153111936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1738,7 +1738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A73" sqref="A73:E100"/>
     </sheetView>
   </sheetViews>
